--- a/wwwroot/Veritabani.xlsx
+++ b/wwwroot/Veritabani.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -58,33 +58,6 @@
     <t>updated_date</t>
   </si>
   <si>
-    <t>9167fea2-ee95-435c-aebd-9ecc6eb14a26</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>c5a1a259-fbcc-4de7-aecc-fcc0c18a5d0b</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>32677e54-7426-496c-b5de-67fd551f18b8</t>
-  </si>
-  <si>
-    <t>15.10.2023 20:28:48</t>
-  </si>
-  <si>
-    <t>15.10.2023 20:28:54</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
@@ -97,6 +70,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>51dd6a81-e273-4084-95e6-b6d6e1213374</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -106,10 +82,13 @@
     <t>true</t>
   </si>
   <si>
+    <t>720f7abf-200c-42d6-b730-289674a9b2a9</t>
+  </si>
+  <si>
     <t>Kıyafet</t>
   </si>
   <si>
-    <t>4c6f6def-0637-471a-ba95-63b4e47103f2</t>
+    <t>8e1cff08-2f68-4f76-ae79-99510a6d6c63</t>
   </si>
   <si>
     <t>Elektronik</t>
@@ -171,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,50 +216,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
@@ -310,36 +245,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -369,18 +304,18 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/Veritabani.xlsx
+++ b/wwwroot/Veritabani.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,33 @@
     <t>updated_date</t>
   </si>
   <si>
+    <t>78547071-2778-4663-bd3e-947255a4f548</t>
+  </si>
+  <si>
+    <t>1asd</t>
+  </si>
+  <si>
+    <t>8e1cff08-2f68-4f76-ae79-99510a6d6c63</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>51dd6a81-e273-4084-95e6-b6d6e1213374</t>
+  </si>
+  <si>
+    <t>15.10.2023 21:39:56</t>
+  </si>
+  <si>
     <t>surname</t>
   </si>
   <si>
@@ -70,9 +97,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>51dd6a81-e273-4084-95e6-b6d6e1213374</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -86,9 +110,6 @@
   </si>
   <si>
     <t>Kıyafet</t>
-  </si>
-  <si>
-    <t>8e1cff08-2f68-4f76-ae79-99510a6d6c63</t>
   </si>
   <si>
     <t>Elektronik</t>
@@ -150,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -216,6 +237,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
@@ -245,36 +310,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -304,18 +369,18 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
